--- a/TurkInputFiles/SpectacularNowMalePart2.xlsx
+++ b/TurkInputFiles/SpectacularNowMalePart2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amaye\Desktop\aoibheannamy.github.io\TurkInputFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E11B80D4-AF4F-4602-88A6-5C766D50D2DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E891054-E289-44C5-B1D6-12FFB2C633E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="75" yWindow="600" windowWidth="20415" windowHeight="10920" xr2:uid="{F44575C3-1C6A-4706-BE98-C6A195D6AFED}"/>
+    <workbookView xWindow="1950" yWindow="600" windowWidth="10440" windowHeight="10920" xr2:uid="{F44575C3-1C6A-4706-BE98-C6A195D6AFED}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,21 +33,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="22">
   <si>
     <t>image_url</t>
-  </si>
-  <si>
-    <t>video_url</t>
-  </si>
-  <si>
-    <t>Hit1_video_url_data</t>
-  </si>
-  <si>
-    <t>Hit2_video_url_data</t>
-  </si>
-  <si>
-    <t>Hit3_video_url_data</t>
   </si>
   <si>
     <t>image2_url</t>
@@ -473,213 +461,195 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C48941A9-B169-4429-B4AA-EBAD607E5256}">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A20"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="1" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="1" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="1" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="1" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="1" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="1" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="1" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="1" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="1" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="1" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="1" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="1" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="1" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" t="s">
-        <v>2</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{FEDDB845-7A9C-435C-B029-314957EE8902}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{AF1C7BB1-F5EC-4AB3-9687-DD7C34CBB6A2}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{B41A46BA-3953-4C27-B9FC-94988C27BCDB}"/>
-    <hyperlink ref="C5" r:id="rId4" xr:uid="{BEFA8A07-396A-4381-B1B0-CBC88C4A38C8}"/>
-    <hyperlink ref="C6" r:id="rId5" xr:uid="{1E90BA1B-5351-43DB-8F9E-2C110A2BA0E1}"/>
-    <hyperlink ref="C7" r:id="rId6" xr:uid="{88EDAAB2-0C11-488D-B2BB-9CB680722A34}"/>
-    <hyperlink ref="C8" r:id="rId7" xr:uid="{B3270A30-D9B8-43C8-889D-A59AC5B19AE5}"/>
-    <hyperlink ref="C9" r:id="rId8" xr:uid="{476D29DB-842D-4468-8085-52C62B1C00D0}"/>
-    <hyperlink ref="C10" r:id="rId9" xr:uid="{FB17E080-DBEF-4088-8C8E-BEE1506A99C4}"/>
-    <hyperlink ref="C11" r:id="rId10" xr:uid="{0E8C9C4A-3EA1-4EA9-8E6E-CFC29318C8B3}"/>
-    <hyperlink ref="C12" r:id="rId11" xr:uid="{DF9E7C66-8E96-4DD0-9C57-546AFDD115F6}"/>
-    <hyperlink ref="C13" r:id="rId12" xr:uid="{EDCD393F-5C31-4556-A191-8065377D44C7}"/>
-    <hyperlink ref="C14" r:id="rId13" xr:uid="{DFC7DF2B-2BFB-41E0-8720-4523B445D547}"/>
-    <hyperlink ref="C15" r:id="rId14" xr:uid="{FFC0FF3D-61EB-4D0F-993C-E759769197C0}"/>
-    <hyperlink ref="C16" r:id="rId15" xr:uid="{BACC5A33-00D0-4E00-9911-1D4DD5183282}"/>
-    <hyperlink ref="C17" r:id="rId16" xr:uid="{8081E4CE-14F0-4FB3-BCBA-EB574072F52E}"/>
-    <hyperlink ref="C18" r:id="rId17" xr:uid="{6B47D329-22FC-4E6B-B7B5-0545321D29D6}"/>
-    <hyperlink ref="C19" r:id="rId18" xr:uid="{2ECA0E35-C8EE-4335-B46F-0F6D41DB873F}"/>
-    <hyperlink ref="C20" r:id="rId19" xr:uid="{06B9A2B7-1932-4BAD-80B7-951A0DCC9893}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{FEDDB845-7A9C-435C-B029-314957EE8902}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{AF1C7BB1-F5EC-4AB3-9687-DD7C34CBB6A2}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{B41A46BA-3953-4C27-B9FC-94988C27BCDB}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{BEFA8A07-396A-4381-B1B0-CBC88C4A38C8}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{1E90BA1B-5351-43DB-8F9E-2C110A2BA0E1}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{88EDAAB2-0C11-488D-B2BB-9CB680722A34}"/>
+    <hyperlink ref="B8" r:id="rId7" xr:uid="{B3270A30-D9B8-43C8-889D-A59AC5B19AE5}"/>
+    <hyperlink ref="B9" r:id="rId8" xr:uid="{476D29DB-842D-4468-8085-52C62B1C00D0}"/>
+    <hyperlink ref="B10" r:id="rId9" xr:uid="{FB17E080-DBEF-4088-8C8E-BEE1506A99C4}"/>
+    <hyperlink ref="B11" r:id="rId10" xr:uid="{0E8C9C4A-3EA1-4EA9-8E6E-CFC29318C8B3}"/>
+    <hyperlink ref="B12" r:id="rId11" xr:uid="{DF9E7C66-8E96-4DD0-9C57-546AFDD115F6}"/>
+    <hyperlink ref="B13" r:id="rId12" xr:uid="{EDCD393F-5C31-4556-A191-8065377D44C7}"/>
+    <hyperlink ref="B14" r:id="rId13" xr:uid="{DFC7DF2B-2BFB-41E0-8720-4523B445D547}"/>
+    <hyperlink ref="B15" r:id="rId14" xr:uid="{FFC0FF3D-61EB-4D0F-993C-E759769197C0}"/>
+    <hyperlink ref="B16" r:id="rId15" xr:uid="{BACC5A33-00D0-4E00-9911-1D4DD5183282}"/>
+    <hyperlink ref="B17" r:id="rId16" xr:uid="{8081E4CE-14F0-4FB3-BCBA-EB574072F52E}"/>
+    <hyperlink ref="B18" r:id="rId17" xr:uid="{6B47D329-22FC-4E6B-B7B5-0545321D29D6}"/>
+    <hyperlink ref="B19" r:id="rId18" xr:uid="{2ECA0E35-C8EE-4335-B46F-0F6D41DB873F}"/>
+    <hyperlink ref="B20" r:id="rId19" xr:uid="{06B9A2B7-1932-4BAD-80B7-951A0DCC9893}"/>
     <hyperlink ref="A2" r:id="rId20" xr:uid="{B7FB354E-56CF-4B73-A0E5-D4AAE3EF7C12}"/>
     <hyperlink ref="A3:A20" r:id="rId21" display="https://raw.githubusercontent.com/aoibheannamy/aoibheannamy.github.io/master/Images/spectacularNow1.jpg?token=APCQXYSK6VOJBGYBQEF2EK27IOULQ" xr:uid="{5F10C888-6354-4D82-8D2F-94591BF089B7}"/>
   </hyperlinks>
